--- a/Дискретная математика ЛР/LR_1/Множества-1.xlsx
+++ b/Дискретная математика ЛР/LR_1/Множества-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Desktop\Homeworks_course2\Дискретная математика ЛР\LR_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasja\OneDrive\Рабочий стол\Homeworks_course2\Дискретная математика ЛР\LR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DC781-5944-4ACE-91E2-002459649968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87307D45-178A-4904-83FE-DBA790836033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="112">
   <si>
     <t>№</t>
   </si>
@@ -29,18 +29,9 @@
     <t>Тест</t>
   </si>
   <si>
-    <t>Отрицательный результат</t>
-  </si>
-  <si>
-    <t>Положительный результат</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>Критерии</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>т10</t>
   </si>
   <si>
-    <t>Классы выходных данных</t>
-  </si>
-  <si>
     <t>Классы входных данных</t>
   </si>
   <si>
@@ -86,101 +74,296 @@
     <t>т12</t>
   </si>
   <si>
-    <t>Кол-во эл. в универсуме</t>
-  </si>
-  <si>
-    <t>Способ форм-я множеств</t>
-  </si>
-  <si>
-    <t>n-e число в универсум</t>
-  </si>
-  <si>
-    <t>Выбор мн-ва для работы</t>
-  </si>
-  <si>
-    <t>k -задаёт:</t>
-  </si>
-  <si>
-    <t>Число д/помещения в мн-во</t>
-  </si>
-  <si>
-    <t>k = -2</t>
-  </si>
-  <si>
-    <t>error =&gt; Повтор ввода</t>
-  </si>
-  <si>
-    <t>k = -2.965</t>
-  </si>
-  <si>
-    <t>k = -12,43</t>
-  </si>
-  <si>
-    <t>k = 2.34</t>
-  </si>
-  <si>
-    <t>k = 34,45</t>
-  </si>
-  <si>
-    <t>k = 12</t>
-  </si>
-  <si>
-    <t>k = 12dfg34</t>
-  </si>
-  <si>
-    <t>k = 34ва34</t>
-  </si>
-  <si>
-    <t>k = "абвгд"</t>
-  </si>
-  <si>
-    <t>k = "abcde"</t>
-  </si>
-  <si>
     <t>k = 0</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>complete, next step</t>
   </si>
   <si>
-    <t>для кол-ва: error =&gt; Повт. ввод</t>
-  </si>
-  <si>
-    <t>для элемента: complete</t>
-  </si>
-  <si>
-    <t>k &gt; 0, вещ. Число</t>
-  </si>
-  <si>
-    <t>k &gt; 0, цел. Число</t>
-  </si>
-  <si>
-    <t>k = строка, кириллица</t>
-  </si>
-  <si>
-    <t>k = строка, латинница</t>
-  </si>
-  <si>
-    <t>k &lt; 0, вещ. Число</t>
-  </si>
-  <si>
     <t>k &lt; 0, цел. Число</t>
   </si>
   <si>
-    <t>k = 0, ввод кол-ва элем-в</t>
-  </si>
-  <si>
-    <t>k = 0, ввод элемента</t>
+    <t>n = -2</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Полученный результат</t>
+  </si>
+  <si>
+    <t>error =&gt; Вы ввели не целочисленное значение!</t>
+  </si>
+  <si>
+    <t>n = -2.965</t>
+  </si>
+  <si>
+    <t>n = -12,43</t>
+  </si>
+  <si>
+    <t>n = 12dfg32</t>
+  </si>
+  <si>
+    <t>k = 5</t>
+  </si>
+  <si>
+    <t>k = -1</t>
+  </si>
+  <si>
+    <t>k = asdf</t>
+  </si>
+  <si>
+    <t>error =&gt; Введите положительное число!</t>
+  </si>
+  <si>
+    <t>k - Кол-во эл. в универсуме</t>
+  </si>
+  <si>
+    <t>n = 12</t>
+  </si>
+  <si>
+    <t>n - значение множества</t>
+  </si>
+  <si>
+    <t>r - Кол-во эл. в подмножестве</t>
+  </si>
+  <si>
+    <t>m - значение подмножества</t>
+  </si>
+  <si>
+    <t>k = 5; r = 5</t>
+  </si>
+  <si>
+    <t>k = 5; r = 6</t>
+  </si>
+  <si>
+    <t>k = 5; r = -4</t>
+  </si>
+  <si>
+    <t>k = 5; r = 0,5</t>
+  </si>
+  <si>
+    <t>k = 1,5</t>
+  </si>
+  <si>
+    <t>error =&gt; Длина подмножества не может быть больше длины множества и меньше 0.</t>
+  </si>
+  <si>
+    <t>k = 5; r = asdf</t>
+  </si>
+  <si>
+    <t>m = 5 = n</t>
+  </si>
+  <si>
+    <t>m = 5 != n</t>
+  </si>
+  <si>
+    <t>Такого значения нет в множестве U!</t>
+  </si>
+  <si>
+    <t>m = adsf</t>
+  </si>
+  <si>
+    <t>Пересечение</t>
+  </si>
+  <si>
+    <t>A = 4 B = 3</t>
+  </si>
+  <si>
+    <t>A = 4 B = 0</t>
+  </si>
+  <si>
+    <t>A = 0 B = 5</t>
+  </si>
+  <si>
+    <t>R = 0</t>
+  </si>
+  <si>
+    <t>3 &gt;= R &gt;= 0</t>
+  </si>
+  <si>
+    <t>Объединение</t>
+  </si>
+  <si>
+    <t>7 &gt;= R &gt;= 4</t>
+  </si>
+  <si>
+    <t>R = 4</t>
+  </si>
+  <si>
+    <t>R = 5</t>
+  </si>
+  <si>
+    <t>A = 0 B = 0</t>
+  </si>
+  <si>
+    <t>R = 1</t>
+  </si>
+  <si>
+    <t>Разность</t>
+  </si>
+  <si>
+    <t>4 &gt;= R &gt;= 1</t>
+  </si>
+  <si>
+    <t>Симметрическая разность</t>
+  </si>
+  <si>
+    <t>7 &gt;= R &gt;= 1</t>
+  </si>
+  <si>
+    <t>Дополнение</t>
+  </si>
+  <si>
+    <t>U = 4 B = 3</t>
+  </si>
+  <si>
+    <t>U = 4 B = 0</t>
+  </si>
+  <si>
+    <t>U = 0 B = 0</t>
+  </si>
+  <si>
+    <t>n - целое число</t>
+  </si>
+  <si>
+    <t>n - не целое число</t>
+  </si>
+  <si>
+    <t>k - не целое число</t>
+  </si>
+  <si>
+    <t>n - строка</t>
+  </si>
+  <si>
+    <t>k - строка</t>
+  </si>
+  <si>
+    <t>k =&gt; r &gt;= 0</t>
+  </si>
+  <si>
+    <t>k &lt; r</t>
+  </si>
+  <si>
+    <t>r &lt; 0</t>
+  </si>
+  <si>
+    <t>r - не цел. Число</t>
+  </si>
+  <si>
+    <t>m == n</t>
+  </si>
+  <si>
+    <t>m != n</t>
+  </si>
+  <si>
+    <t>m - не цел. Число</t>
+  </si>
+  <si>
+    <t>т13</t>
+  </si>
+  <si>
+    <t>т14</t>
+  </si>
+  <si>
+    <t>т15</t>
+  </si>
+  <si>
+    <t>т16</t>
+  </si>
+  <si>
+    <t>т17</t>
+  </si>
+  <si>
+    <t>т18</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>k &gt;= 0, цел. Число</t>
+  </si>
+  <si>
+    <t>т19</t>
+  </si>
+  <si>
+    <t>т20</t>
+  </si>
+  <si>
+    <t>т21</t>
+  </si>
+  <si>
+    <t>т22</t>
+  </si>
+  <si>
+    <t>т23</t>
+  </si>
+  <si>
+    <t>т24</t>
+  </si>
+  <si>
+    <t>т25</t>
+  </si>
+  <si>
+    <t>т26</t>
+  </si>
+  <si>
+    <t>т27</t>
+  </si>
+  <si>
+    <t>т28</t>
+  </si>
+  <si>
+    <t>т29</t>
+  </si>
+  <si>
+    <t>т30</t>
+  </si>
+  <si>
+    <t>т31</t>
+  </si>
+  <si>
+    <t>т32</t>
+  </si>
+  <si>
+    <t>т33</t>
+  </si>
+  <si>
+    <t>т34</t>
+  </si>
+  <si>
+    <t>A &gt; 0 B &gt; 0</t>
+  </si>
+  <si>
+    <t>A &gt; 0 B = 0</t>
+  </si>
+  <si>
+    <t>A = 0 B &gt; 0</t>
+  </si>
+  <si>
+    <t>т35</t>
+  </si>
+  <si>
+    <t>т36</t>
+  </si>
+  <si>
+    <t>т37</t>
+  </si>
+  <si>
+    <t>U &gt; 0 A &gt; 0</t>
+  </si>
+  <si>
+    <t>U &gt; 0 A = 0</t>
+  </si>
+  <si>
+    <t>U = 0 A = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +379,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -213,13 +403,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -238,9 +668,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,9 +708,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,9 +743,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,9 +795,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,23 +988,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="77.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,202 +1012,569 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -751,188 +1582,668 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="B1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="13"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4</v>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="13"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
